--- a/aibachelor/Backend/Data.xlsx
+++ b/aibachelor/Backend/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RaChr\Desktop\Skole\Bachelor\Ai-Bachelor\aibachelor\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96834A0-9CB9-4FB2-BDC5-7AA6D62CD0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1818205-D152-4246-A402-38C087657EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="12015" yWindow="660" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1245,12 +1245,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="141.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
